--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/singpause/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9128A5FC-CF61-BA48-B73F-4DB80B5405DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B61EFE-84D4-6549-93C6-B7CA9556ECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="978">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2866,12 +2866,152 @@
   <si>
     <t>Drücke auf ,,Spielen", um die Melodie mit Rhythmen zu hören. Spiele die Melodie dann nach.</t>
   </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Hallo</t>
+  </si>
+  <si>
+    <t>wait_message</t>
+  </si>
+  <si>
+    <t>Please wait a few seconds.</t>
+  </si>
+  <si>
+    <t>Bitte warte einige Sekunden.</t>
+  </si>
+  <si>
+    <t>sing_along_page_title</t>
+  </si>
+  <si>
+    <t>Sing along with the melody</t>
+  </si>
+  <si>
+    <t>Singe mit der Melodie mit.</t>
+  </si>
+  <si>
+    <t>good_try_message</t>
+  </si>
+  <si>
+    <t>Good try! Let's see how you did…</t>
+  </si>
+  <si>
+    <t>Guter Versuch! Lass uns sehen, wie du es gemacht hast.</t>
+  </si>
+  <si>
+    <t>well_done</t>
+  </si>
+  <si>
+    <t>Well done!</t>
+  </si>
+  <si>
+    <t>Gut gemacht!</t>
+  </si>
+  <si>
+    <t>your_score_was</t>
+  </si>
+  <si>
+    <t>Your score was</t>
+  </si>
+  <si>
+    <t>Deine Punktzahl war</t>
+  </si>
+  <si>
+    <t>redirect_message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well done! You will now be redirected back to your dashboard.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gut gemacht! Du wirst jetzt zu deinem Konto zurückgeleitet.
+</t>
+  </si>
+  <si>
+    <t>sing_back_message</t>
+  </si>
+  <si>
+    <t>Sing back the melody</t>
+  </si>
+  <si>
+    <t>Singe die Melodie nach.</t>
+  </si>
+  <si>
+    <t>lets_proceed</t>
+  </si>
+  <si>
+    <t>Let's proceed!</t>
+  </si>
+  <si>
+    <t>Lasst uns fortfahren!</t>
+  </si>
+  <si>
+    <t>Lyrics</t>
+  </si>
+  <si>
+    <t>Songtext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jetzt wirst du einige </t>
+  </si>
+  <si>
+    <t>Melodien anschauen, die du zuvor bereits kennengelernt hast.</t>
+  </si>
+  <si>
+    <t>a-rhythmische</t>
+  </si>
+  <si>
+    <t>rhythmische</t>
+  </si>
+  <si>
+    <t>Melodien</t>
+  </si>
+  <si>
+    <t>Jetzt hörst du einige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jetzt werden Sie einige </t>
+  </si>
+  <si>
+    <t>Melodien anschauen, die Sie zuvor bereits kennengelernt haben.</t>
+  </si>
+  <si>
+    <t>Jetzt hören Sie einige</t>
+  </si>
+  <si>
+    <t>now_you_will_review_some</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you will review some </t>
+  </si>
+  <si>
+    <t>melodies_you_have_encountered_previously</t>
+  </si>
+  <si>
+    <t>melodies you have encountered previously.</t>
+  </si>
+  <si>
+    <t>arrhythmic</t>
+  </si>
+  <si>
+    <t>rhythmic</t>
+  </si>
+  <si>
+    <t>melodies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now_you_will_hear_some </t>
+  </si>
+  <si>
+    <t>Now you will hear some</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2945,6 +3085,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2986,7 +3133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3026,6 +3173,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -6591,10 +6743,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8754,7 +8906,7 @@
       <c r="C154" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="D154" s="21" t="s">
+      <c r="D154" s="2" t="s">
         <v>909</v>
       </c>
     </row>
@@ -8842,7 +8994,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
         <v>733</v>
       </c>
@@ -8856,7 +9008,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>734</v>
       </c>
@@ -8870,7 +9022,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>735</v>
       </c>
@@ -8884,7 +9036,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
         <v>736</v>
       </c>
@@ -8898,17 +9050,238 @@
         <v>907</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D168" s="2"/>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>935</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="E166" s="21"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="E167" s="12"/>
+    </row>
+    <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>941</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>942</v>
+      </c>
+      <c r="D168" s="21" t="s">
+        <v>942</v>
+      </c>
+      <c r="E168" s="21"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="E170" s="12"/>
+    </row>
+    <row r="171" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A171" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>950</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>951</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>951</v>
+      </c>
+      <c r="E171" s="21"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="E172" s="12"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="D173" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="E173" s="22"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>959</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="D175" s="24" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>967</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>963</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>964</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>965</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/singpause/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B61EFE-84D4-6549-93C6-B7CA9556ECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D05FC87-4262-F048-8FA9-50438FD98FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -3001,10 +3001,10 @@
     <t>melodies</t>
   </si>
   <si>
-    <t xml:space="preserve">Now_you_will_hear_some </t>
-  </si>
-  <si>
     <t>Now you will hear some</t>
+  </si>
+  <si>
+    <t>Now_you_will_hear_some</t>
   </si>
 </sst>
 </file>
@@ -3133,7 +3133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3177,8 +3177,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6746,7 +6744,7 @@
   <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A162" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9192,10 +9190,10 @@
       <c r="B174" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="C174" s="23" t="s">
+      <c r="C174" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="D174" s="23" t="s">
+      <c r="D174" s="12" t="s">
         <v>959</v>
       </c>
     </row>
@@ -9206,10 +9204,10 @@
       <c r="B175" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C175" s="24" t="s">
+      <c r="C175" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="D175" s="24" t="s">
+      <c r="D175" s="2" t="s">
         <v>960</v>
       </c>
     </row>
@@ -9220,10 +9218,10 @@
       <c r="B176" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="C176" s="24" t="s">
+      <c r="C176" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="D176" s="24" t="s">
+      <c r="D176" s="2" t="s">
         <v>961</v>
       </c>
     </row>
@@ -9234,10 +9232,10 @@
       <c r="B177" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="C177" s="24" t="s">
+      <c r="C177" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="D177" s="24" t="s">
+      <c r="D177" s="2" t="s">
         <v>962</v>
       </c>
     </row>
@@ -9248,10 +9246,10 @@
       <c r="B178" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="C178" s="24" t="s">
+      <c r="C178" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D178" s="24" t="s">
+      <c r="D178" s="2" t="s">
         <v>963</v>
       </c>
     </row>
@@ -9262,24 +9260,24 @@
       <c r="B179" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="C179" s="24" t="s">
+      <c r="C179" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="D179" s="24" t="s">
+      <c r="D179" s="2" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="C180" s="24" t="s">
+      <c r="C180" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="D180" s="24" t="s">
+      <c r="D180" s="2" t="s">
         <v>965</v>
       </c>
     </row>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/singpause/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D05FC87-4262-F048-8FA9-50438FD98FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40F16F-8846-D047-A4AC-8BD88A7E9DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -6743,8 +6743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/singpause/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40F16F-8846-D047-A4AC-8BD88A7E9DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA10524-4258-0149-BACF-D2F93D98745B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="982">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -3006,12 +3006,24 @@
   <si>
     <t>Now_you_will_hear_some</t>
   </si>
+  <si>
+    <t>Mochten Sie weiterlernen?</t>
+  </si>
+  <si>
+    <t>continue_learning_question</t>
+  </si>
+  <si>
+    <t>Would you like to continue learning? </t>
+  </si>
+  <si>
+    <t>Mochtest du weiterlernen?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3092,6 +3104,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3133,7 +3151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3177,6 +3195,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6741,10 +6760,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9281,6 +9300,20 @@
         <v>965</v>
       </c>
     </row>
+    <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>980</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/singpause/data-raw/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA10524-4258-0149-BACF-D2F93D98745B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434C9CF1-56F0-6446-BCE4-A2254449313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -20,6 +20,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tabelle3!$A$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tabelle4!$A$1:$D$181</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="984">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -3017,6 +3019,12 @@
   </si>
   <si>
     <t>Mochtest du weiterlernen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danke! Du hast das </t>
+  </si>
+  <si>
+    <t>Toll gemacht!</t>
   </si>
 </sst>
 </file>
@@ -3512,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView topLeftCell="C59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D164"/>
+    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6529,7 +6537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22DF3B7-8878-064B-9246-F0834514B2BF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6754,6 +6764,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C13" xr:uid="{A22DF3B7-8878-064B-9246-F0834514B2BF}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6762,8 +6773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView tabSelected="1" topLeftCell="C155" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7776,7 +7787,7 @@
         <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>261</v>
+        <v>982</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>859</v>
@@ -9135,7 +9146,7 @@
         <v>944</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>945</v>
+        <v>983</v>
       </c>
       <c r="D169" s="12" t="s">
         <v>945</v>
@@ -9315,6 +9326,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D181" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434C9CF1-56F0-6446-BCE4-A2254449313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF5BC10-80AC-7944-A616-8AC8C2295517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="992">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2640,9 +2640,6 @@
     <t>Du hast noch einen Versuch übrig, wenn du möchtest.</t>
   </si>
   <si>
-    <t>Du hast keine Versuche mehr übrig. Klicke hier, um die nächste Melodie zu hören.</t>
-  </si>
-  <si>
     <t>Jetzt kannst du ein paar Übungsversuche ausprobieren.</t>
   </si>
   <si>
@@ -2747,9 +2744,6 @@
     <t>Du hast keinen Versuch mehr übrig. Klicke hier, um die nächste Melodie zu hören.</t>
   </si>
   <si>
-    <t>Klicke auf den Knopf unten, um die Melodie zu hören. Singe die Melodie und den Rhythmus nach. Klicke auf Stop, wenn du fertig bist.</t>
-  </si>
-  <si>
     <t>Singe die Melodie und den Rhythmus.</t>
   </si>
   <si>
@@ -2807,9 +2801,6 @@
     <t xml:space="preserve"> Klicke auf den ,,Test starten"-Knopf. Wenn ein Pop-Up mit der Nachricht ,,Zulassen" erscheint, klicke auf ,,Zulassen".</t>
   </si>
   <si>
-    <t>Mache nun ein Geräusch (z.B. summen, klatschen, singen). Wenn du eine Aktivität (bewegende farbige Balken) im Messgerät siehst, funktioniert das Gerät. Andernfalls funktioniert es nicht.</t>
-  </si>
-  <si>
     <t>*Das in den Computer eingebaute Mikrofon ist ausreichend, aber wenn möglich, benutze bitte ein extern-angestecktes Mikrofon.</t>
   </si>
   <si>
@@ -2817,21 +2808,6 @@
   </si>
   <si>
     <t>Entschuldigung, dein Browser bietet nicht die nötigen Voraussetzungen, um den Test durchzuführen. Bitte lade die neuste Version von Google Chrome herunter, um das Experiment durchzuführen.</t>
-  </si>
-  <si>
-    <t>Bitte spiele den tiefsten angenehm zu spielenden Ton auf deinem Instrument. Klicke ,,Stop", wenn du fertig bist.</t>
-  </si>
-  <si>
-    <t>Bitte spiele den höchsten angenehm zu spielenden Ton auf deinem Instrument. Klicke ,,Stop", wenn du fertig bist.</t>
-  </si>
-  <si>
-    <t>Bitte singe den tiefsten angenehm zu singenden Ton. Klicke ,,Stop", wenn du fertig bist.</t>
-  </si>
-  <si>
-    <t>Bitte singe den höchsten angenehm zu singenden Ton. Klicke ,,Stop", wenn du fertig bist.</t>
-  </si>
-  <si>
-    <t>Klicke unten, um die Melodie zu hören. Singe die Melodie nach. Klicke ,,Stop", wenn du fertig bist.</t>
   </si>
   <si>
     <t>Wenn du mit deinen Antworten zufrieden warst, klicke auf ,,Weiter", andernfalls klicke auf ,,Nochmal Versuchen".</t>
@@ -2955,12 +2931,6 @@
     <t>Songtext</t>
   </si>
   <si>
-    <t xml:space="preserve">Jetzt wirst du einige </t>
-  </si>
-  <si>
-    <t>Melodien anschauen, die du zuvor bereits kennengelernt hast.</t>
-  </si>
-  <si>
     <t>a-rhythmische</t>
   </si>
   <si>
@@ -3025,6 +2995,60 @@
   </si>
   <si>
     <t>Toll gemacht!</t>
+  </si>
+  <si>
+    <t>Mache nun ein Geräusch (z.B. summen, klatschen, singen). Wenn du eine Aktivität (bewegende farbige Balken) im Messgerät siehst, funktioniert dein Mikrofon. Andernfalls funktioniert es nicht.</t>
+  </si>
+  <si>
+    <t>Klicke auf den Knopf unten, um die Melodie zu hören. Singe die Melodie nach. Klicke auf Stop, wenn du fertig bist.</t>
+  </si>
+  <si>
+    <t>Sie haben keine Versuche mehr übrig. Klicken Sie hier um die nächste Melodie anzuhören.</t>
+  </si>
+  <si>
+    <t>Du hast keine Versuche mehr übrig. Klicke hier, um die nächste Melodie anzuhören.</t>
+  </si>
+  <si>
+    <t>Bitte spielen Sie den tiefsten angenehm zu spielenden Ton auf Ihrem Instrument. Klicken Sie "Stopp" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Bitte spielen Sie den höchsten angenehm zu spielenden Ton auf Ihrem Instrument. Klicken Sie "Stopp" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Bitte singen Sie Ihren tiefsten angenehm zu singenden Ton. Klicken Sie "Stopp" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Bitte singen Sie Ihren höchsten angenehm zu singenden Ton. Klicken Sie "Stopp" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Bitte spiele den tiefsten angenehm zu spielenden Ton auf deinem Instrument. Klicke ,,Stopp", wenn du fertig bist.</t>
+  </si>
+  <si>
+    <t>Bitte spiele den höchsten angenehm zu spielenden Ton auf deinem Instrument. Klicke ,,Stopp", wenn du fertig bist.</t>
+  </si>
+  <si>
+    <t>Bitte singe den tiefsten angenehm zu singenden Ton. Klicke ,,Stopp", wenn du fertig bist.</t>
+  </si>
+  <si>
+    <t>Bitte singe den höchsten angenehm zu singenden Ton. Klicke ,,Stopp", wenn du fertig bist.</t>
+  </si>
+  <si>
+    <t>Klicken Sie unten um die Melodie zu hören. Singen Sie die Melodie nach. Klicken Sie "Stopp" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Klicke unten, um die Melodie zu hören. Singe die Melodie nach. Klicke ,,Stopp", wenn du fertig bist.</t>
+  </si>
+  <si>
+    <t>Stopp</t>
+  </si>
+  <si>
+    <t>Guter Versuch! Lass uns sehen, wie genau du gesungen hast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jetzt bekommst du einige </t>
+  </si>
+  <si>
+    <t>Melodien, die du vielleicht schon kennst.</t>
   </si>
 </sst>
 </file>
@@ -3520,7 +3544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
@@ -6537,7 +6561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22DF3B7-8878-064B-9246-F0834514B2BF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6773,8 +6797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C155" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="D149" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6838,7 +6862,7 @@
         <v>186</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6950,7 +6974,7 @@
         <v>672</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6964,7 +6988,7 @@
         <v>673</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>912</v>
+        <v>974</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7272,7 +7296,7 @@
         <v>217</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7398,7 +7422,7 @@
         <v>220</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7468,7 +7492,7 @@
         <v>223</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -7479,10 +7503,10 @@
         <v>158</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>224</v>
+        <v>978</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>916</v>
+        <v>982</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7493,10 +7517,10 @@
         <v>159</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>225</v>
+        <v>979</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>917</v>
+        <v>983</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7507,10 +7531,10 @@
         <v>160</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>226</v>
+        <v>980</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>918</v>
+        <v>984</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7521,10 +7545,10 @@
         <v>161</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>227</v>
+        <v>981</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>919</v>
+        <v>985</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7717,10 +7741,10 @@
         <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>236</v>
+        <v>976</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>857</v>
+        <v>977</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7734,7 +7758,7 @@
         <v>237</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -7759,10 +7783,10 @@
         <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>239</v>
+        <v>986</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>920</v>
+        <v>987</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7787,10 +7811,10 @@
         <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7818,7 +7842,7 @@
         <v>240</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -7874,7 +7898,7 @@
         <v>281</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7902,7 +7926,7 @@
         <v>244</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -7930,7 +7954,7 @@
         <v>246</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -7944,7 +7968,7 @@
         <v>247</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -7958,7 +7982,7 @@
         <v>679</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -7972,7 +7996,7 @@
         <v>276</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -7986,7 +8010,7 @@
         <v>273</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8000,7 +8024,7 @@
         <v>271</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -8025,10 +8049,10 @@
         <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>127</v>
+        <v>988</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>988</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -8056,7 +8080,7 @@
         <v>143</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -8084,7 +8108,7 @@
         <v>249</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -8109,7 +8133,7 @@
         <v>680</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -8123,7 +8147,7 @@
         <v>250</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -8137,7 +8161,7 @@
         <v>251</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -8151,7 +8175,7 @@
         <v>252</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -8165,7 +8189,7 @@
         <v>253</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -8179,7 +8203,7 @@
         <v>254</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -8193,7 +8217,7 @@
         <v>255</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8221,7 +8245,7 @@
         <v>257</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -8235,7 +8259,7 @@
         <v>258</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -8263,7 +8287,7 @@
         <v>259</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -8277,7 +8301,7 @@
         <v>681</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8291,7 +8315,7 @@
         <v>682</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8305,7 +8329,7 @@
         <v>683</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8333,7 +8357,7 @@
         <v>684</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -8347,7 +8371,7 @@
         <v>685</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -8417,7 +8441,7 @@
         <v>690</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8431,7 +8455,7 @@
         <v>691</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -8445,7 +8469,7 @@
         <v>692</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -8473,7 +8497,7 @@
         <v>694</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -8487,7 +8511,7 @@
         <v>695</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8501,7 +8525,7 @@
         <v>696</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -8515,7 +8539,7 @@
         <v>697</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -8543,7 +8567,7 @@
         <v>699</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8554,10 +8578,10 @@
         <v>414</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -8568,10 +8592,10 @@
         <v>416</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -8613,7 +8637,7 @@
         <v>704</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8627,7 +8651,7 @@
         <v>705</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8655,7 +8679,7 @@
         <v>707</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8669,7 +8693,7 @@
         <v>708</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -8711,7 +8735,7 @@
         <v>709</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -8781,7 +8805,7 @@
         <v>712</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>892</v>
+        <v>975</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8795,7 +8819,7 @@
         <v>713</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -8809,7 +8833,7 @@
         <v>714</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -8823,7 +8847,7 @@
         <v>715</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -8851,7 +8875,7 @@
         <v>717</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -8865,7 +8889,7 @@
         <v>718</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -8879,7 +8903,7 @@
         <v>719</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -8893,7 +8917,7 @@
         <v>720</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -8907,7 +8931,7 @@
         <v>721</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -8921,7 +8945,7 @@
         <v>722</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -8935,7 +8959,7 @@
         <v>723</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -8949,7 +8973,7 @@
         <v>724</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -8977,7 +9001,7 @@
         <v>726</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -8991,7 +9015,7 @@
         <v>727</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -9005,7 +9029,7 @@
         <v>729</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9019,7 +9043,7 @@
         <v>728</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -9033,7 +9057,7 @@
         <v>730</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -9047,7 +9071,7 @@
         <v>737</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -9061,7 +9085,7 @@
         <v>738</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -9075,254 +9099,250 @@
         <v>739</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="E165" s="12"/>
     </row>
     <row r="166" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="E166" s="21"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>942</v>
+        <v>989</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="E168" s="21"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="E169" s="12"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="E171" s="21"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="E172" s="12"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="E173" s="22"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>960</v>
+        <v>990</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>961</v>
+        <v>991</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>962</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="D177" s="2"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>963</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF5BC10-80AC-7944-A616-8AC8C2295517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E60259A-E4A3-1C43-89D4-72EAB1EBF50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="992">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2643,9 +2643,6 @@
     <t>Jetzt kannst du ein paar Übungsversuche ausprobieren.</t>
   </si>
   <si>
-    <t>Danke! Du hast den</t>
-  </si>
-  <si>
     <t>Super, gut gemacht! Jetzt solltest du für den richtigen Test bereit sein.</t>
   </si>
   <si>
@@ -2735,18 +2732,12 @@
     <t>Wenn die Anzeige rot wird, während du dein Instrument spielst, halte an. Drehe die Lautstärke des Mikrofons herunter oder geh ein Stück zurück.</t>
   </si>
   <si>
-    <t>Klick auf den Knopf unten, um die Melodie zu hören. Sing sie dann nach. Klick auf Stop, wenn du fertig bist.</t>
-  </si>
-  <si>
     <t>Jetzt hörst du einige Melodien. Bitte versuche, diese nachzusingen.</t>
   </si>
   <si>
     <t>Du hast keinen Versuch mehr übrig. Klicke hier, um die nächste Melodie zu hören.</t>
   </si>
   <si>
-    <t>Singe die Melodie und den Rhythmus.</t>
-  </si>
-  <si>
     <t>Versuche zuerst</t>
   </si>
   <si>
@@ -2808,9 +2799,6 @@
   </si>
   <si>
     <t>Entschuldigung, dein Browser bietet nicht die nötigen Voraussetzungen, um den Test durchzuführen. Bitte lade die neuste Version von Google Chrome herunter, um das Experiment durchzuführen.</t>
-  </si>
-  <si>
-    <t>Wenn du mit deinen Antworten zufrieden warst, klicke auf ,,Weiter", andernfalls klicke auf ,,Nochmal Versuchen".</t>
   </si>
   <si>
     <t>Singe fünf Sekunden lang mit dem Ton mit.</t>
@@ -2875,9 +2863,6 @@
     <t>Good try! Let's see how you did…</t>
   </si>
   <si>
-    <t>Guter Versuch! Lass uns sehen, wie du es gemacht hast.</t>
-  </si>
-  <si>
     <t>well_done</t>
   </si>
   <si>
@@ -3000,9 +2985,6 @@
     <t>Mache nun ein Geräusch (z.B. summen, klatschen, singen). Wenn du eine Aktivität (bewegende farbige Balken) im Messgerät siehst, funktioniert dein Mikrofon. Andernfalls funktioniert es nicht.</t>
   </si>
   <si>
-    <t>Klicke auf den Knopf unten, um die Melodie zu hören. Singe die Melodie nach. Klicke auf Stop, wenn du fertig bist.</t>
-  </si>
-  <si>
     <t>Sie haben keine Versuche mehr übrig. Klicken Sie hier um die nächste Melodie anzuhören.</t>
   </si>
   <si>
@@ -3048,7 +3030,26 @@
     <t xml:space="preserve">Jetzt bekommst du einige </t>
   </si>
   <si>
-    <t>Melodien, die du vielleicht schon kennst.</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Nochmal versuchen</t>
+  </si>
+  <si>
+    <t>Wenn du mit deinem Ergebnis zufrieden warst, klicke auf ,,Weiter", andernfalls klicke auf ,,Nochmal versuchen".</t>
+  </si>
+  <si>
+    <t>Melodien, die du vielleicht bereits kennst.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toll gemacht! Du wirst jetzt zu deinem Konto zurückgeleitet.
+</t>
+  </si>
+  <si>
+    <t>Klick auf den Knopf unten, um die Melodie anzuhören. Sing sie dann nach. Klick auf Stopp, wenn du damit fertig bist.</t>
+  </si>
+  <si>
+    <t>Klicke auf den Knopf unten, um die Melodie anzuhören. Singe die Melodie nach. Klicke auf Stopp, wenn du damit fertig bist.</t>
   </si>
 </sst>
 </file>
@@ -6797,8 +6798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D149" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView tabSelected="1" topLeftCell="D33" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6862,7 +6863,7 @@
         <v>186</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6974,7 +6975,7 @@
         <v>672</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6988,7 +6989,7 @@
         <v>673</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7296,7 +7297,7 @@
         <v>217</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7422,7 +7423,7 @@
         <v>220</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7492,7 +7493,7 @@
         <v>223</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -7503,10 +7504,10 @@
         <v>158</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7517,10 +7518,10 @@
         <v>159</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7531,10 +7532,10 @@
         <v>160</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7545,10 +7546,10 @@
         <v>161</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7741,10 +7742,10 @@
         <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7783,10 +7784,10 @@
         <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7811,10 +7812,10 @@
         <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>858</v>
+        <v>967</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7842,7 +7843,7 @@
         <v>240</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -7867,10 +7868,10 @@
         <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>282</v>
+        <v>986</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>282</v>
+        <v>986</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -7898,7 +7899,7 @@
         <v>281</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>913</v>
+        <v>987</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7926,7 +7927,7 @@
         <v>244</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -7954,7 +7955,7 @@
         <v>246</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -7968,7 +7969,7 @@
         <v>247</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -7982,7 +7983,7 @@
         <v>679</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -7996,7 +7997,7 @@
         <v>276</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -8010,7 +8011,7 @@
         <v>273</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8024,7 +8025,7 @@
         <v>271</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -8049,10 +8050,10 @@
         <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -8080,7 +8081,7 @@
         <v>143</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -8108,7 +8109,7 @@
         <v>249</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -8133,7 +8134,7 @@
         <v>680</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -8147,7 +8148,7 @@
         <v>250</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -8161,7 +8162,7 @@
         <v>251</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -8175,7 +8176,7 @@
         <v>252</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -8189,7 +8190,7 @@
         <v>253</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -8203,7 +8204,7 @@
         <v>254</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -8217,7 +8218,7 @@
         <v>255</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8245,7 +8246,7 @@
         <v>257</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -8259,7 +8260,7 @@
         <v>258</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -8287,7 +8288,7 @@
         <v>259</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -8301,7 +8302,7 @@
         <v>681</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8315,7 +8316,7 @@
         <v>682</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8329,7 +8330,7 @@
         <v>683</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8357,7 +8358,7 @@
         <v>684</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -8371,7 +8372,7 @@
         <v>685</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -8441,7 +8442,7 @@
         <v>690</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8455,7 +8456,7 @@
         <v>691</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -8469,7 +8470,7 @@
         <v>692</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -8497,7 +8498,7 @@
         <v>694</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -8511,7 +8512,7 @@
         <v>695</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8525,7 +8526,7 @@
         <v>696</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -8539,7 +8540,7 @@
         <v>697</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -8567,7 +8568,7 @@
         <v>699</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8578,10 +8579,10 @@
         <v>414</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -8592,10 +8593,10 @@
         <v>416</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -8637,7 +8638,7 @@
         <v>704</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>888</v>
+        <v>990</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8651,7 +8652,7 @@
         <v>705</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8679,7 +8680,7 @@
         <v>707</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8693,7 +8694,7 @@
         <v>708</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -8735,7 +8736,7 @@
         <v>709</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -8805,7 +8806,7 @@
         <v>712</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>975</v>
+        <v>991</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8819,7 +8820,7 @@
         <v>713</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>891</v>
+        <v>703</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -8833,7 +8834,7 @@
         <v>714</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -8847,7 +8848,7 @@
         <v>715</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -8875,7 +8876,7 @@
         <v>717</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -8889,7 +8890,7 @@
         <v>718</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -8903,7 +8904,7 @@
         <v>719</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -8917,7 +8918,7 @@
         <v>720</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -8931,7 +8932,7 @@
         <v>721</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -8945,7 +8946,7 @@
         <v>722</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -8959,7 +8960,7 @@
         <v>723</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -8973,7 +8974,7 @@
         <v>724</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -9001,7 +9002,7 @@
         <v>726</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -9015,7 +9016,7 @@
         <v>727</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -9029,7 +9030,7 @@
         <v>729</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9043,7 +9044,7 @@
         <v>728</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -9057,7 +9058,7 @@
         <v>730</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -9071,7 +9072,7 @@
         <v>737</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -9085,7 +9086,7 @@
         <v>738</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -9099,250 +9100,254 @@
         <v>739</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E165" s="12"/>
     </row>
     <row r="166" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E166" s="21"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>934</v>
+        <v>983</v>
       </c>
       <c r="E168" s="21"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E169" s="12"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>943</v>
+        <v>989</v>
       </c>
       <c r="E171" s="21"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="E172" s="12"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="E173" s="22"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="D177" s="2"/>
+        <v>947</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="D178" s="2"/>
+        <v>948</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E60259A-E4A3-1C43-89D4-72EAB1EBF50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0933A9F-62DC-FA4A-BB3A-2B5F012659FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="992">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -6798,8 +6798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="C78" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8122,6 +8122,9 @@
       <c r="C94" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0933A9F-62DC-FA4A-BB3A-2B5F012659FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF8250F-7525-8E4C-8174-93AA9BE6BEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="993">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2732,12 +2732,6 @@
     <t>Wenn die Anzeige rot wird, während du dein Instrument spielst, halte an. Drehe die Lautstärke des Mikrofons herunter oder geh ein Stück zurück.</t>
   </si>
   <si>
-    <t>Jetzt hörst du einige Melodien. Bitte versuche, diese nachzusingen.</t>
-  </si>
-  <si>
-    <t>Du hast keinen Versuch mehr übrig. Klicke hier, um die nächste Melodie zu hören.</t>
-  </si>
-  <si>
     <t>Versuche zuerst</t>
   </si>
   <si>
@@ -2750,9 +2744,6 @@
     <t>Singe diese Note für fünf Sekunden, nachdem du sie gehört hast.</t>
   </si>
   <si>
-    <t>Jetzt hörst du einige Melodien mit Rhythmen. Bitte versuche die Melodien mit den Rhythmen nachzusingen.</t>
-  </si>
-  <si>
     <t>Du singst jetzt einige lange Noten.</t>
   </si>
   <si>
@@ -2769,18 +2760,6 @@
   </si>
   <si>
     <t>Vielen Dank für deine Teilnahme bei diesem Test!</t>
-  </si>
-  <si>
-    <t>Jetzt wirst du einige Melodien hören. Versuche bitte, sie nachzuspielen.</t>
-  </si>
-  <si>
-    <t>Spiele diese Melodie und die Rhythmen nach.</t>
-  </si>
-  <si>
-    <t>Jetzt wirst du einige Melodien mit Rhythmen hören. Versuche bitte, die Melodien nachzuspielen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiele diese Melodie. </t>
   </si>
   <si>
     <t>Bitte gib deine ID ein.</t>
@@ -2827,12 +2806,6 @@
     <t>Klicke auf ,,Aufnehmen", um diesen Ton aufzunehmen.</t>
   </si>
   <si>
-    <t>Drück auf ,,Spielen", um die Melodie zu hören. Spiele die Melodie dann nach.</t>
-  </si>
-  <si>
-    <t>Drücke auf ,,Spielen", um die Melodie mit Rhythmen zu hören. Spiele die Melodie dann nach.</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
@@ -2898,9 +2871,6 @@
     <t>Sing back the melody</t>
   </si>
   <si>
-    <t>Singe die Melodie nach.</t>
-  </si>
-  <si>
     <t>lets_proceed</t>
   </si>
   <si>
@@ -3037,26 +3007,59 @@
   </si>
   <si>
     <t>Wenn du mit deinem Ergebnis zufrieden warst, klicke auf ,,Weiter", andernfalls klicke auf ,,Nochmal versuchen".</t>
-  </si>
-  <si>
-    <t>Melodien, die du vielleicht bereits kennst.</t>
   </si>
   <si>
     <t xml:space="preserve">Toll gemacht! Du wirst jetzt zu deinem Konto zurückgeleitet.
 </t>
   </si>
   <si>
-    <t>Klick auf den Knopf unten, um die Melodie anzuhören. Sing sie dann nach. Klick auf Stopp, wenn du damit fertig bist.</t>
-  </si>
-  <si>
-    <t>Klicke auf den Knopf unten, um die Melodie anzuhören. Singe die Melodie nach. Klicke auf Stopp, wenn du damit fertig bist.</t>
+    <t>Singe die Melodie nach</t>
+  </si>
+  <si>
+    <t>Jetzt hörst du einige Tonfolgen. Bitte versuche, diese nachzusingen.</t>
+  </si>
+  <si>
+    <t>Du hast keinen Versuch mehr übrig. Klicke hier, um die nächste Tonfolge zu hören.</t>
+  </si>
+  <si>
+    <t>Klicke auf den Knopf unten, um die Tonfolge anzuhören. Singe die Tonfolge nach. Klicke auf Stopp, wenn du damit fertig bist.</t>
+  </si>
+  <si>
+    <t>Jetzt hörst du einige Tonfolgen mit Rhythmen. Bitte versuche die Tonfolgen mit den Rhythmen nachzusingen.</t>
+  </si>
+  <si>
+    <t>Drück auf ,,Spielen", um die Tonfolge zu hören. Spiele die Melodie dann nach.</t>
+  </si>
+  <si>
+    <t>Jetzt wirst du einige Tonfolgen hören. Versuche bitte, sie nachzuspielen.</t>
+  </si>
+  <si>
+    <t>Jetzt wirst du einige Tonfolgen mit Rhythmen hören. Versuche bitte, die Tonfolgen nachzuspielen.</t>
+  </si>
+  <si>
+    <t>Spiele diese Tonfolge und die Rhythmen nach.</t>
+  </si>
+  <si>
+    <t>Tonfolgen</t>
+  </si>
+  <si>
+    <t>Tonfolgen, die du vielleicht bereits kennst.</t>
+  </si>
+  <si>
+    <t>Drücke auf ,,Spielen", um die Tonfolge mit Rhythmen zu hören. Spiele die Melodie dann nach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiele diese Tonfolge. </t>
+  </si>
+  <si>
+    <t>Klick auf den Knopf unten, um die Tonfolge anzuhören. Sing sie dann nach. Klick auf Stopp, wenn du damit fertig bist.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3143,6 +3146,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3184,7 +3193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3229,6 +3238,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6798,8 +6808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C78" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6863,7 +6873,7 @@
         <v>186</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6975,7 +6985,7 @@
         <v>672</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6989,7 +6999,7 @@
         <v>673</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7297,7 +7307,7 @@
         <v>217</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7423,7 +7433,7 @@
         <v>220</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7493,7 +7503,7 @@
         <v>223</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -7504,10 +7514,10 @@
         <v>158</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7518,10 +7528,10 @@
         <v>159</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7532,10 +7542,10 @@
         <v>160</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7546,10 +7556,10 @@
         <v>161</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7742,10 +7752,10 @@
         <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7773,7 +7783,7 @@
         <v>238</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>703</v>
+        <v>979</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -7784,10 +7794,10 @@
         <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7812,10 +7822,10 @@
         <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7868,10 +7878,10 @@
         <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -7899,7 +7909,7 @@
         <v>281</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7983,7 +7993,7 @@
         <v>679</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -7997,7 +8007,7 @@
         <v>276</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -8025,7 +8035,7 @@
         <v>271</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -8050,10 +8060,10 @@
         <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -8109,10 +8119,10 @@
         <v>249</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>149</v>
       </c>
@@ -8122,8 +8132,8 @@
       <c r="C94" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>985</v>
+      <c r="D94" s="24" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8375,7 +8385,7 @@
         <v>685</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -8515,7 +8525,7 @@
         <v>695</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8571,7 +8581,7 @@
         <v>699</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8624,10 +8634,10 @@
         <v>419</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>703</v>
+        <v>979</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>703</v>
+        <v>979</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8641,7 +8651,7 @@
         <v>704</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8655,7 +8665,7 @@
         <v>705</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>887</v>
+        <v>980</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8683,7 +8693,7 @@
         <v>707</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8739,7 +8749,7 @@
         <v>709</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>888</v>
+        <v>981</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -8809,7 +8819,7 @@
         <v>712</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8823,7 +8833,7 @@
         <v>713</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>703</v>
+        <v>979</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -8837,7 +8847,7 @@
         <v>714</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>893</v>
+        <v>983</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -8851,7 +8861,7 @@
         <v>715</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -8879,7 +8889,7 @@
         <v>717</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -8893,7 +8903,7 @@
         <v>718</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -8907,7 +8917,7 @@
         <v>719</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -8921,7 +8931,7 @@
         <v>720</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -8935,7 +8945,7 @@
         <v>721</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -8949,7 +8959,7 @@
         <v>722</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -8963,7 +8973,7 @@
         <v>723</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -8977,7 +8987,7 @@
         <v>724</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -9005,7 +9015,7 @@
         <v>726</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -9019,7 +9029,7 @@
         <v>727</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -9033,7 +9043,7 @@
         <v>729</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>918</v>
+        <v>984</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9047,7 +9057,7 @@
         <v>728</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>903</v>
+        <v>991</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -9061,7 +9071,7 @@
         <v>730</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>900</v>
+        <v>985</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -9075,7 +9085,7 @@
         <v>737</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>919</v>
+        <v>990</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -9089,7 +9099,7 @@
         <v>738</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>901</v>
+        <v>987</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -9103,254 +9113,254 @@
         <v>739</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>902</v>
+        <v>986</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="E165" s="12"/>
     </row>
     <row r="166" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="E166" s="21"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="E168" s="21"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="E169" s="12"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="E171" s="21"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>941</v>
+        <v>979</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>941</v>
+        <v>979</v>
       </c>
       <c r="E172" s="12"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="E173" s="22"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>949</v>
+        <v>988</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF8250F-7525-8E4C-8174-93AA9BE6BEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348072DC-0A12-0C4D-BF46-5B7E0B9D1627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="200" yWindow="3080" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="994">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2652,9 +2652,6 @@
     <t>Wenn du dieses Bild siehst, wird deine Eingabe aufgenommen. Versuchen bitte, den Angaben genau zu folgen.</t>
   </si>
   <si>
-    <t>Singe die Melodie nach, die du hörst.</t>
-  </si>
-  <si>
     <t>Singe mit diesem Ton mit.</t>
   </si>
   <si>
@@ -2958,9 +2955,6 @@
     <t>Sie haben keine Versuche mehr übrig. Klicken Sie hier um die nächste Melodie anzuhören.</t>
   </si>
   <si>
-    <t>Du hast keine Versuche mehr übrig. Klicke hier, um die nächste Melodie anzuhören.</t>
-  </si>
-  <si>
     <t>Bitte spielen Sie den tiefsten angenehm zu spielenden Ton auf Ihrem Instrument. Klicken Sie "Stopp" wenn Sie fertig sind.</t>
   </si>
   <si>
@@ -2986,9 +2980,6 @@
   </si>
   <si>
     <t>Klicken Sie unten um die Melodie zu hören. Singen Sie die Melodie nach. Klicken Sie "Stopp" wenn Sie fertig sind.</t>
-  </si>
-  <si>
-    <t>Klicke unten, um die Melodie zu hören. Singe die Melodie nach. Klicke ,,Stopp", wenn du fertig bist.</t>
   </si>
   <si>
     <t>Stopp</t>
@@ -3028,31 +3019,43 @@
     <t>Jetzt hörst du einige Tonfolgen mit Rhythmen. Bitte versuche die Tonfolgen mit den Rhythmen nachzusingen.</t>
   </si>
   <si>
-    <t>Drück auf ,,Spielen", um die Tonfolge zu hören. Spiele die Melodie dann nach.</t>
-  </si>
-  <si>
     <t>Jetzt wirst du einige Tonfolgen hören. Versuche bitte, sie nachzuspielen.</t>
   </si>
   <si>
     <t>Jetzt wirst du einige Tonfolgen mit Rhythmen hören. Versuche bitte, die Tonfolgen nachzuspielen.</t>
   </si>
   <si>
-    <t>Spiele diese Tonfolge und die Rhythmen nach.</t>
-  </si>
-  <si>
     <t>Tonfolgen</t>
   </si>
   <si>
     <t>Tonfolgen, die du vielleicht bereits kennst.</t>
   </si>
   <si>
-    <t>Drücke auf ,,Spielen", um die Tonfolge mit Rhythmen zu hören. Spiele die Melodie dann nach.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spiele diese Tonfolge. </t>
   </si>
   <si>
     <t>Klick auf den Knopf unten, um die Tonfolge anzuhören. Sing sie dann nach. Klick auf Stopp, wenn du damit fertig bist.</t>
+  </si>
+  <si>
+    <t>Singe die Tonfolge nach</t>
+  </si>
+  <si>
+    <t>Klicke unten, um die Tonfolge zu hören. Singe die Tonfolge nach. Klicke ,,Stopp", wenn du fertig bist.</t>
+  </si>
+  <si>
+    <t>Singe die Tonfolge nach, die du hörst.</t>
+  </si>
+  <si>
+    <t>Singe zur Tonfolge mit</t>
+  </si>
+  <si>
+    <t>Du hast keine Versuche mehr übrig. Klicke hier, um die nächste Tonfolge anzuhören.</t>
+  </si>
+  <si>
+    <t>Drück auf ,,Spielen", um die Tonfolge zu hören. Spiele die Tonfolge dann nach.</t>
+  </si>
+  <si>
+    <t>Drücke auf ,,Spielen", um die Tonfolge mit Rhythmen zu hören. Spiele die Tonfolge dann nach.</t>
   </si>
 </sst>
 </file>
@@ -6808,8 +6811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="C172" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6873,7 +6876,7 @@
         <v>186</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6985,7 +6988,7 @@
         <v>672</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6999,7 +7002,7 @@
         <v>673</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7307,7 +7310,7 @@
         <v>217</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7433,7 +7436,7 @@
         <v>220</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7503,7 +7506,7 @@
         <v>223</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -7514,10 +7517,10 @@
         <v>158</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7528,10 +7531,10 @@
         <v>159</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7542,10 +7545,10 @@
         <v>160</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7556,10 +7559,10 @@
         <v>161</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7752,10 +7755,10 @@
         <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>961</v>
+        <v>991</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7783,7 +7786,7 @@
         <v>238</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -7794,10 +7797,10 @@
         <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>971</v>
+        <v>988</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7822,10 +7825,10 @@
         <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7878,10 +7881,10 @@
         <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -7909,7 +7912,7 @@
         <v>281</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7965,7 +7968,7 @@
         <v>246</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>861</v>
+        <v>989</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -7979,7 +7982,7 @@
         <v>247</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -7993,7 +7996,7 @@
         <v>679</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -8007,7 +8010,7 @@
         <v>276</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -8021,7 +8024,7 @@
         <v>273</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8035,7 +8038,7 @@
         <v>271</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -8060,10 +8063,10 @@
         <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -8091,7 +8094,7 @@
         <v>143</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -8119,7 +8122,7 @@
         <v>249</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -8133,7 +8136,7 @@
         <v>151</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8147,7 +8150,7 @@
         <v>680</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -8161,7 +8164,7 @@
         <v>250</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -8175,7 +8178,7 @@
         <v>251</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -8189,7 +8192,7 @@
         <v>252</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -8203,7 +8206,7 @@
         <v>253</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -8217,7 +8220,7 @@
         <v>254</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -8231,7 +8234,7 @@
         <v>255</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8259,7 +8262,7 @@
         <v>257</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -8273,7 +8276,7 @@
         <v>258</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -8301,7 +8304,7 @@
         <v>259</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -8315,7 +8318,7 @@
         <v>681</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8329,7 +8332,7 @@
         <v>682</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8343,7 +8346,7 @@
         <v>683</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8371,7 +8374,7 @@
         <v>684</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -8385,7 +8388,7 @@
         <v>685</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -8455,7 +8458,7 @@
         <v>690</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8469,7 +8472,7 @@
         <v>691</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -8483,7 +8486,7 @@
         <v>692</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -8511,7 +8514,7 @@
         <v>694</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -8525,7 +8528,7 @@
         <v>695</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8539,7 +8542,7 @@
         <v>696</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -8553,7 +8556,7 @@
         <v>697</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -8581,7 +8584,7 @@
         <v>699</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -8592,10 +8595,10 @@
         <v>414</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -8606,10 +8609,10 @@
         <v>416</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -8634,10 +8637,10 @@
         <v>419</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8651,7 +8654,7 @@
         <v>704</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8665,7 +8668,7 @@
         <v>705</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8693,7 +8696,7 @@
         <v>707</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8749,7 +8752,7 @@
         <v>709</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -8819,7 +8822,7 @@
         <v>712</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8833,7 +8836,7 @@
         <v>713</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -8847,7 +8850,7 @@
         <v>714</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -8861,7 +8864,7 @@
         <v>715</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -8889,7 +8892,7 @@
         <v>717</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -8903,7 +8906,7 @@
         <v>718</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -8917,7 +8920,7 @@
         <v>719</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -8931,7 +8934,7 @@
         <v>720</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -8945,7 +8948,7 @@
         <v>721</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -8959,7 +8962,7 @@
         <v>722</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -8973,7 +8976,7 @@
         <v>723</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -8987,7 +8990,7 @@
         <v>724</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -9015,7 +9018,7 @@
         <v>726</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -9029,7 +9032,7 @@
         <v>727</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -9043,7 +9046,7 @@
         <v>729</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9057,7 +9060,7 @@
         <v>728</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -9071,7 +9074,7 @@
         <v>730</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -9085,7 +9088,7 @@
         <v>737</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -9098,9 +9101,7 @@
       <c r="C163" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>987</v>
-      </c>
+      <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
@@ -9113,254 +9114,254 @@
         <v>739</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="C165" s="12" t="s">
         <v>911</v>
       </c>
-      <c r="B165" s="12" t="s">
+      <c r="D165" s="12" t="s">
         <v>911</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>912</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>912</v>
       </c>
       <c r="E165" s="12"/>
     </row>
     <row r="166" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="B166" s="21" t="s">
         <v>913</v>
       </c>
-      <c r="B166" s="21" t="s">
+      <c r="C166" s="21" t="s">
         <v>914</v>
       </c>
-      <c r="C166" s="21" t="s">
-        <v>915</v>
-      </c>
       <c r="D166" s="21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E166" s="21"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="B167" s="12" t="s">
         <v>916</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="C167" s="12" t="s">
         <v>917</v>
       </c>
-      <c r="C167" s="12" t="s">
-        <v>918</v>
-      </c>
       <c r="D167" s="12" t="s">
-        <v>918</v>
+        <v>990</v>
       </c>
       <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="B168" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="B168" s="21" t="s">
-        <v>920</v>
-      </c>
       <c r="C168" s="21" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E168" s="21"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
+        <v>920</v>
+      </c>
+      <c r="B169" s="12" t="s">
         <v>921</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="C169" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="D169" s="12" t="s">
         <v>922</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>958</v>
-      </c>
-      <c r="D169" s="12" t="s">
-        <v>923</v>
       </c>
       <c r="E169" s="12"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="B170" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="C170" s="12" t="s">
         <v>925</v>
       </c>
-      <c r="C170" s="12" t="s">
-        <v>926</v>
-      </c>
       <c r="D170" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="B171" s="21" t="s">
         <v>927</v>
       </c>
-      <c r="B171" s="21" t="s">
+      <c r="C171" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="C171" s="21" t="s">
-        <v>929</v>
-      </c>
       <c r="D171" s="21" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E171" s="21"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="B172" s="12" t="s">
         <v>930</v>
       </c>
-      <c r="B172" s="12" t="s">
-        <v>931</v>
-      </c>
       <c r="C172" s="12" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="E172" s="12"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
+        <v>931</v>
+      </c>
+      <c r="B173" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="C173" s="22" t="s">
         <v>933</v>
       </c>
-      <c r="C173" s="22" t="s">
-        <v>934</v>
-      </c>
       <c r="D173" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E173" s="22"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="C174" s="12" t="s">
         <v>935</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="D174" s="12" t="s">
         <v>935</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>936</v>
-      </c>
-      <c r="D174" s="12" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>945</v>
-      </c>
       <c r="C175" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>947</v>
-      </c>
       <c r="C176" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="B181" s="23" t="s">
         <v>954</v>
       </c>
-      <c r="B181" s="23" t="s">
+      <c r="C181" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>956</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348072DC-0A12-0C4D-BF46-5B7E0B9D1627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C990EAF-E79D-5049-A184-73A23BB4D87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="3080" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="400" yWindow="2140" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3000,62 +3000,62 @@
     <t>Wenn du mit deinem Ergebnis zufrieden warst, klicke auf ,,Weiter", andernfalls klicke auf ,,Nochmal versuchen".</t>
   </si>
   <si>
-    <t xml:space="preserve">Toll gemacht! Du wirst jetzt zu deinem Konto zurückgeleitet.
+    <t>Singe die Melodie nach</t>
+  </si>
+  <si>
+    <t>Jetzt hörst du einige Tonfolgen. Bitte versuche, diese nachzusingen.</t>
+  </si>
+  <si>
+    <t>Du hast keinen Versuch mehr übrig. Klicke hier, um die nächste Tonfolge zu hören.</t>
+  </si>
+  <si>
+    <t>Klicke auf den Knopf unten, um die Tonfolge anzuhören. Singe die Tonfolge nach. Klicke auf Stopp, wenn du damit fertig bist.</t>
+  </si>
+  <si>
+    <t>Jetzt hörst du einige Tonfolgen mit Rhythmen. Bitte versuche die Tonfolgen mit den Rhythmen nachzusingen.</t>
+  </si>
+  <si>
+    <t>Jetzt wirst du einige Tonfolgen hören. Versuche bitte, sie nachzuspielen.</t>
+  </si>
+  <si>
+    <t>Jetzt wirst du einige Tonfolgen mit Rhythmen hören. Versuche bitte, die Tonfolgen nachzuspielen.</t>
+  </si>
+  <si>
+    <t>Tonfolgen</t>
+  </si>
+  <si>
+    <t>Tonfolgen, die du vielleicht bereits kennst.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiele diese Tonfolge. </t>
+  </si>
+  <si>
+    <t>Klick auf den Knopf unten, um die Tonfolge anzuhören. Sing sie dann nach. Klick auf Stopp, wenn du damit fertig bist.</t>
+  </si>
+  <si>
+    <t>Singe die Tonfolge nach</t>
+  </si>
+  <si>
+    <t>Klicke unten, um die Tonfolge zu hören. Singe die Tonfolge nach. Klicke ,,Stopp", wenn du fertig bist.</t>
+  </si>
+  <si>
+    <t>Singe die Tonfolge nach, die du hörst.</t>
+  </si>
+  <si>
+    <t>Singe zur Tonfolge mit</t>
+  </si>
+  <si>
+    <t>Du hast keine Versuche mehr übrig. Klicke hier, um die nächste Tonfolge anzuhören.</t>
+  </si>
+  <si>
+    <t>Drück auf ,,Spielen", um die Tonfolge zu hören. Spiele die Tonfolge dann nach.</t>
+  </si>
+  <si>
+    <t>Drücke auf ,,Spielen", um die Tonfolge mit Rhythmen zu hören. Spiele die Tonfolge dann nach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du wirst jetzt zu deinem Konto zurückgeleitet.
 </t>
-  </si>
-  <si>
-    <t>Singe die Melodie nach</t>
-  </si>
-  <si>
-    <t>Jetzt hörst du einige Tonfolgen. Bitte versuche, diese nachzusingen.</t>
-  </si>
-  <si>
-    <t>Du hast keinen Versuch mehr übrig. Klicke hier, um die nächste Tonfolge zu hören.</t>
-  </si>
-  <si>
-    <t>Klicke auf den Knopf unten, um die Tonfolge anzuhören. Singe die Tonfolge nach. Klicke auf Stopp, wenn du damit fertig bist.</t>
-  </si>
-  <si>
-    <t>Jetzt hörst du einige Tonfolgen mit Rhythmen. Bitte versuche die Tonfolgen mit den Rhythmen nachzusingen.</t>
-  </si>
-  <si>
-    <t>Jetzt wirst du einige Tonfolgen hören. Versuche bitte, sie nachzuspielen.</t>
-  </si>
-  <si>
-    <t>Jetzt wirst du einige Tonfolgen mit Rhythmen hören. Versuche bitte, die Tonfolgen nachzuspielen.</t>
-  </si>
-  <si>
-    <t>Tonfolgen</t>
-  </si>
-  <si>
-    <t>Tonfolgen, die du vielleicht bereits kennst.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiele diese Tonfolge. </t>
-  </si>
-  <si>
-    <t>Klick auf den Knopf unten, um die Tonfolge anzuhören. Sing sie dann nach. Klick auf Stopp, wenn du damit fertig bist.</t>
-  </si>
-  <si>
-    <t>Singe die Tonfolge nach</t>
-  </si>
-  <si>
-    <t>Klicke unten, um die Tonfolge zu hören. Singe die Tonfolge nach. Klicke ,,Stopp", wenn du fertig bist.</t>
-  </si>
-  <si>
-    <t>Singe die Tonfolge nach, die du hörst.</t>
-  </si>
-  <si>
-    <t>Singe zur Tonfolge mit</t>
-  </si>
-  <si>
-    <t>Du hast keine Versuche mehr übrig. Klicke hier, um die nächste Tonfolge anzuhören.</t>
-  </si>
-  <si>
-    <t>Drück auf ,,Spielen", um die Tonfolge zu hören. Spiele die Tonfolge dann nach.</t>
-  </si>
-  <si>
-    <t>Drücke auf ,,Spielen", um die Tonfolge mit Rhythmen zu hören. Spiele die Tonfolge dann nach.</t>
   </si>
 </sst>
 </file>
@@ -6811,8 +6811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C172" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="D153" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7758,7 +7758,7 @@
         <v>959</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7786,7 +7786,7 @@
         <v>238</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -7800,7 +7800,7 @@
         <v>968</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7968,7 +7968,7 @@
         <v>246</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -8136,7 +8136,7 @@
         <v>151</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8637,10 +8637,10 @@
         <v>419</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8654,7 +8654,7 @@
         <v>704</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8668,7 +8668,7 @@
         <v>705</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8752,7 +8752,7 @@
         <v>709</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -8822,7 +8822,7 @@
         <v>712</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8836,7 +8836,7 @@
         <v>713</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -8850,7 +8850,7 @@
         <v>714</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -9046,7 +9046,7 @@
         <v>729</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9060,7 +9060,7 @@
         <v>728</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -9074,7 +9074,7 @@
         <v>730</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
         <v>737</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -9114,7 +9114,7 @@
         <v>739</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -9158,7 +9158,7 @@
         <v>917</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E167" s="12"/>
     </row>
@@ -9218,7 +9218,7 @@
         <v>928</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>975</v>
+        <v>993</v>
       </c>
       <c r="E171" s="21"/>
     </row>
@@ -9230,10 +9230,10 @@
         <v>930</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E172" s="12"/>
     </row>
@@ -9291,7 +9291,7 @@
         <v>941</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -9333,7 +9333,7 @@
         <v>938</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C990EAF-E79D-5049-A184-73A23BB4D87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAFEE83-09DA-814B-BF95-EC2CB15827F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="2140" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="995">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -3003,18 +3003,9 @@
     <t>Singe die Melodie nach</t>
   </si>
   <si>
-    <t>Jetzt hörst du einige Tonfolgen. Bitte versuche, diese nachzusingen.</t>
-  </si>
-  <si>
     <t>Du hast keinen Versuch mehr übrig. Klicke hier, um die nächste Tonfolge zu hören.</t>
   </si>
   <si>
-    <t>Klicke auf den Knopf unten, um die Tonfolge anzuhören. Singe die Tonfolge nach. Klicke auf Stopp, wenn du damit fertig bist.</t>
-  </si>
-  <si>
-    <t>Jetzt hörst du einige Tonfolgen mit Rhythmen. Bitte versuche die Tonfolgen mit den Rhythmen nachzusingen.</t>
-  </si>
-  <si>
     <t>Jetzt wirst du einige Tonfolgen hören. Versuche bitte, sie nachzuspielen.</t>
   </si>
   <si>
@@ -3030,19 +3021,7 @@
     <t xml:space="preserve">Spiele diese Tonfolge. </t>
   </si>
   <si>
-    <t>Klick auf den Knopf unten, um die Tonfolge anzuhören. Sing sie dann nach. Klick auf Stopp, wenn du damit fertig bist.</t>
-  </si>
-  <si>
     <t>Singe die Tonfolge nach</t>
-  </si>
-  <si>
-    <t>Klicke unten, um die Tonfolge zu hören. Singe die Tonfolge nach. Klicke ,,Stopp", wenn du fertig bist.</t>
-  </si>
-  <si>
-    <t>Singe die Tonfolge nach, die du hörst.</t>
-  </si>
-  <si>
-    <t>Singe zur Tonfolge mit</t>
   </si>
   <si>
     <t>Du hast keine Versuche mehr übrig. Klicke hier, um die nächste Tonfolge anzuhören.</t>
@@ -3056,6 +3035,30 @@
   <si>
     <t xml:space="preserve">Du wirst jetzt zu deinem Konto zurückgeleitet.
 </t>
+  </si>
+  <si>
+    <t>Singe die Tonfolge auf „da“ nach</t>
+  </si>
+  <si>
+    <t>Klicke unten, um die Tonfolge zu hören. Singe die Tonfolge auf „da“ nach. Klicke ,,Stopp", wenn du fertig bist.</t>
+  </si>
+  <si>
+    <t>Singe die Tonfolge auf „da“ nach, die du hörst.</t>
+  </si>
+  <si>
+    <t>Klick auf den Knopf unten, um die Tonfolge anzuhören. Sing sie auf „da“ dann nach. Klick auf Stopp, wenn du damit fertig bist.</t>
+  </si>
+  <si>
+    <t>Jetzt hörst du einige Tonfolgen. Bitte versuche, diese auf „da“ nachzusingen.</t>
+  </si>
+  <si>
+    <t>Klicke auf den Knopf unten, um die Tonfolge anzuhören. Singe die Tonfolge auf „da“ nach. Klicke auf Stopp, wenn du damit fertig bist.</t>
+  </si>
+  <si>
+    <t>Jetzt hörst du einige Tonfolgen mit Rhythmen. Bitte versuche die Tonfolgen mit den Rhythmen auf „da“ nachzusingen.</t>
+  </si>
+  <si>
+    <t>Singe zur Tonfolge auf „da“ mit</t>
   </si>
 </sst>
 </file>
@@ -6811,7 +6814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D153" zoomScale="114" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C160" zoomScale="114" workbookViewId="0">
       <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
@@ -7758,7 +7761,7 @@
         <v>959</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7786,7 +7789,7 @@
         <v>238</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -7800,7 +7803,7 @@
         <v>968</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7968,7 +7971,7 @@
         <v>246</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -8136,7 +8139,7 @@
         <v>151</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8640,7 +8643,7 @@
         <v>975</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8654,7 +8657,7 @@
         <v>704</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8668,7 +8671,7 @@
         <v>705</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8752,7 +8755,7 @@
         <v>709</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -8822,7 +8825,7 @@
         <v>712</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>978</v>
+        <v>992</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8836,7 +8839,7 @@
         <v>713</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -8850,7 +8853,7 @@
         <v>714</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -9046,7 +9049,7 @@
         <v>729</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9060,7 +9063,7 @@
         <v>728</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -9074,7 +9077,7 @@
         <v>730</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -9088,7 +9091,7 @@
         <v>737</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -9114,7 +9117,7 @@
         <v>739</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -9158,7 +9161,7 @@
         <v>917</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="E167" s="12"/>
     </row>
@@ -9218,7 +9221,7 @@
         <v>928</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="E171" s="21"/>
     </row>
@@ -9233,7 +9236,7 @@
         <v>975</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E172" s="12"/>
     </row>
@@ -9291,7 +9294,7 @@
         <v>941</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -9333,7 +9336,7 @@
         <v>938</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAFEE83-09DA-814B-BF95-EC2CB15827F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429DD282-7B07-E749-8B8A-A8C2F666437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="2140" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="440" yWindow="2120" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3058,7 +3058,7 @@
     <t>Jetzt hörst du einige Tonfolgen mit Rhythmen. Bitte versuche die Tonfolgen mit den Rhythmen auf „da“ nachzusingen.</t>
   </si>
   <si>
-    <t>Singe zur Tonfolge auf „da“ mit</t>
+    <t>Singe zur Tonfolge mit</t>
   </si>
 </sst>
 </file>
@@ -6814,8 +6814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C160" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView tabSelected="1" topLeftCell="D149" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9236,7 +9236,7 @@
         <v>975</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="E172" s="12"/>
     </row>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429DD282-7B07-E749-8B8A-A8C2F666437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D857ED85-BD69-A94E-BE4C-C71973E30A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="2120" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="400" yWindow="2140" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="998">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -3056,6 +3056,15 @@
   </si>
   <si>
     <t>Jetzt hörst du einige Tonfolgen mit Rhythmen. Bitte versuche die Tonfolgen mit den Rhythmen auf „da“ nachzusingen.</t>
+  </si>
+  <si>
+    <t>Singe zur Tonfolge auf „da“ mit</t>
+  </si>
+  <si>
+    <t>sing_along_page_title_da</t>
+  </si>
+  <si>
+    <t>sing_back_message_da</t>
   </si>
   <si>
     <t>Singe zur Tonfolge mit</t>
@@ -6812,9 +6821,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D149" zoomScale="114" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D154" zoomScale="114" workbookViewId="0">
       <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
@@ -9161,7 +9170,7 @@
         <v>917</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="E167" s="12"/>
     </row>
@@ -9365,6 +9374,34 @@
       </c>
       <c r="D181" s="2" t="s">
         <v>955</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="12" t="s">
+        <v>995</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>987</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D857ED85-BD69-A94E-BE4C-C71973E30A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD0E28D-3C5C-8A48-A7A3-08B2CC62AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="2140" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="4280" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3061,13 +3061,13 @@
     <t>Singe zur Tonfolge auf „da“ mit</t>
   </si>
   <si>
-    <t>sing_along_page_title_da</t>
-  </si>
-  <si>
-    <t>sing_back_message_da</t>
-  </si>
-  <si>
     <t>Singe zur Tonfolge mit</t>
+  </si>
+  <si>
+    <t>sing_along_page_title_without_da</t>
+  </si>
+  <si>
+    <t>sing_back_message_without_da</t>
   </si>
 </sst>
 </file>
@@ -6823,7 +6823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D154" zoomScale="114" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D156" zoomScale="114" workbookViewId="0">
       <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>915</v>
+        <v>996</v>
       </c>
       <c r="B167" s="12" t="s">
         <v>916</v>
@@ -9170,7 +9170,7 @@
         <v>917</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E167" s="12"/>
     </row>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>929</v>
+        <v>997</v>
       </c>
       <c r="B172" s="12" t="s">
         <v>930</v>
@@ -9378,7 +9378,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>995</v>
+        <v>915</v>
       </c>
       <c r="B182" s="12" t="s">
         <v>916</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>996</v>
+        <v>929</v>
       </c>
       <c r="B183" s="12" t="s">
         <v>930</v>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD0E28D-3C5C-8A48-A7A3-08B2CC62AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F09ACC-4EC8-994B-892B-691B5EC6E9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4280" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="2140" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -6823,8 +6823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D156" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView tabSelected="1" topLeftCell="D126" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8847,8 +8847,8 @@
       <c r="C144" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>982</v>
+      <c r="D144" s="12" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F09ACC-4EC8-994B-892B-691B5EC6E9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8153084B-CA36-7E49-B816-4E60182BD7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2140" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="997">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -3021,9 +3021,6 @@
     <t xml:space="preserve">Spiele diese Tonfolge. </t>
   </si>
   <si>
-    <t>Singe die Tonfolge nach</t>
-  </si>
-  <si>
     <t>Du hast keine Versuche mehr übrig. Klicke hier, um die nächste Tonfolge anzuhören.</t>
   </si>
   <si>
@@ -3061,13 +3058,13 @@
     <t>Singe zur Tonfolge auf „da“ mit</t>
   </si>
   <si>
-    <t>Singe zur Tonfolge mit</t>
-  </si>
-  <si>
     <t>sing_along_page_title_without_da</t>
   </si>
   <si>
     <t>sing_back_message_without_da</t>
+  </si>
+  <si>
+    <t>Singe mit der Melodie</t>
   </si>
 </sst>
 </file>
@@ -6823,8 +6820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D126" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="D158" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7770,7 +7767,7 @@
         <v>959</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7798,7 +7795,7 @@
         <v>238</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -7812,7 +7809,7 @@
         <v>968</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7980,7 +7977,7 @@
         <v>246</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -8148,7 +8145,7 @@
         <v>151</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -8652,7 +8649,7 @@
         <v>975</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8666,7 +8663,7 @@
         <v>704</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8680,7 +8677,7 @@
         <v>705</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8834,7 +8831,7 @@
         <v>712</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8848,7 +8845,7 @@
         <v>713</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -8862,7 +8859,7 @@
         <v>714</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -9058,7 +9055,7 @@
         <v>729</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9100,7 +9097,7 @@
         <v>737</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -9161,7 +9158,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B167" s="12" t="s">
         <v>916</v>
@@ -9170,7 +9167,7 @@
         <v>917</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E167" s="12"/>
     </row>
@@ -9230,13 +9227,13 @@
         <v>928</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E171" s="21"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B172" s="12" t="s">
         <v>930</v>
@@ -9245,7 +9242,7 @@
         <v>975</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="E172" s="12"/>
     </row>
@@ -9387,7 +9384,7 @@
         <v>917</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -9401,7 +9398,7 @@
         <v>975</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8153084B-CA36-7E49-B816-4E60182BD7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B8EEA9-AEAE-9949-8A0F-708FE9998386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2140" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="3420" yWindow="1420" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="998">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -3064,7 +3064,10 @@
     <t>sing_back_message_without_da</t>
   </si>
   <si>
-    <t>Singe mit der Melodie</t>
+    <t>Singe das Lied mit</t>
+  </si>
+  <si>
+    <t>Singe das Lied nach</t>
   </si>
 </sst>
 </file>
@@ -6820,8 +6823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D158" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9242,7 +9245,7 @@
         <v>975</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>975</v>
+        <v>997</v>
       </c>
       <c r="E172" s="12"/>
     </row>

--- a/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
+++ b/data-raw/input/musicassessr_dict_sabeth_neue_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/songbird/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B8EEA9-AEAE-9949-8A0F-708FE9998386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DD4484-863A-5841-9F2A-EB5EDF4CE1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1420" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="3100" yWindow="1420" windowWidth="32740" windowHeight="19080" activeTab="3" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -6823,8 +6823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D2AA2-7F7B-C743-8F66-202935957A13}">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="D158" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
